--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/10bet2winDataBrokenURLList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>1 55 ID=23014 Provider=Yggdrasil Name=ARRR! 10K Ways cod=21 description=The system cannot find the file specified.
  ResponseObject=null</t>
@@ -118,63 +118,66 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>27 551 ID=23017 Provider=QuickSpin Name=Pied Piper cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>28 552 ID=23735 Provider=Platipus Name=Piedra del Sol cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>29 559 ID=23736 Provider=Platipus Name=Pirate'sMap cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>30 590 ID=23011 Provider=PlaynGo Name=Reactoonz 2 cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>31 645 ID=23012 Provider=PlaynGo Name=Secret of Dead cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>32 649 ID=23013 Provider=PlaysonDirect Name=Sevens&amp;Fruits cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>33 667 ID=23752 Provider=ZeusPlay Name=Snake Eyes cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>34 681 ID=23016 Provider=Spadegaming Name=Spins Stone cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>35 690 ID=23020 Provider=Wazdan Name=Sun of Fortune Xmas Edition cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>36 715 ID=23737 Provider=PariPlay Name=Teddy's Tavern cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>37 728 ID=23782 Provider=PlaynGo Name=The Green Knight cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>38 792 ID=23738 Provider=WACS Name=VoxSlot cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>39 802 ID=23750 Provider=ZeusPlay Name=Wild Charger cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>40 804 ID=23739 Provider=NucleusGaming Name=Wild Cherry Blast cod=21 description=The system cannot find the file specified.
- ResponseObject=null</t>
-  </si>
-  <si>
-    <t>41 824 ID=23740 Provider=NucleusGaming Name=Winter Champs cod=21 description=The system cannot find the file specified.
+    <t>27 550 ID=29645 Provider=QuickSpin Name=Phoenix Sun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>28 551 ID=23017 Provider=QuickSpin Name=Pied Piper cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>29 552 ID=23735 Provider=Platipus Name=Piedra del Sol cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>30 559 ID=23736 Provider=Platipus Name=Pirate'sMap cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>31 590 ID=23011 Provider=PlaynGo Name=Reactoonz 2 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>32 645 ID=23012 Provider=PlaynGo Name=Secret of Dead cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>33 649 ID=23013 Provider=PlaysonDirect Name=Sevens&amp;Fruits cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>34 667 ID=23752 Provider=ZeusPlay Name=Snake Eyes cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>35 681 ID=23016 Provider=Spadegaming Name=Spins Stone cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>36 690 ID=23020 Provider=Wazdan Name=Sun of Fortune Xmas Edition cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>37 715 ID=23737 Provider=PariPlay Name=Teddy's Tavern cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>38 728 ID=23782 Provider=PlaynGo Name=The Green Knight cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>39 792 ID=23738 Provider=WACS Name=VoxSlot cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>40 802 ID=23750 Provider=ZeusPlay Name=Wild Charger cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>41 804 ID=23739 Provider=NucleusGaming Name=Wild Cherry Blast cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>42 824 ID=23740 Provider=NucleusGaming Name=Winter Champs cod=21 description=The system cannot find the file specified.
  ResponseObject=null</t>
   </si>
 </sst>
@@ -220,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -434,6 +437,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
